--- a/CPL trade-in Maple.xlsx
+++ b/CPL trade-in Maple.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maple/Desktop/Transfer/Final Dashboard for the trade-in/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE289A7-15A2-4748-A83B-AC12ADAC4CEC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38BE0BD-0780-0E4F-8743-E4D919856158}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
@@ -519,7 +519,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -662,7 +662,7 @@
         <v>143</v>
       </c>
       <c r="T2" s="10">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="16" thickBot="1">
@@ -724,7 +724,7 @@
         <v>30</v>
       </c>
       <c r="T3" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16" thickBot="1">
@@ -786,7 +786,7 @@
         <v>998</v>
       </c>
       <c r="T4" s="11">
-        <v>834</v>
+        <v>859</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="16" thickBot="1">
@@ -848,7 +848,7 @@
         <v>46</v>
       </c>
       <c r="T5" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" thickBot="1">
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="T6" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="16" thickBot="1">
